--- a/results/minimal_seats-Cyprus.xlsx
+++ b/results/minimal_seats-Cyprus.xlsx
@@ -19,40 +19,40 @@
     <t>Key</t>
   </si>
   <si>
-    <t>ADI</t>
-  </si>
-  <si>
-    <t>AKE</t>
-  </si>
-  <si>
-    <t>DIK</t>
-  </si>
-  <si>
-    <t>DIS</t>
-  </si>
-  <si>
-    <t>EDE</t>
-  </si>
-  <si>
-    <t>EDI</t>
-  </si>
-  <si>
-    <t>KOP</t>
-  </si>
-  <si>
-    <t>NEO</t>
-  </si>
-  <si>
-    <t>EVR</t>
-  </si>
-  <si>
-    <t>ELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ka </t>
-  </si>
-  <si>
-    <t>syp</t>
+    <t>ADIK - Fighting Democratic Movement (Agonistiko Dimokratiko Kinima, ADIK)</t>
+  </si>
+  <si>
+    <t>AKEL - Progressive Party of the Working People  (Anorthotiko Komma Ergazomenou Laou, AKEL)</t>
+  </si>
+  <si>
+    <t>DIKO - Democratic Party  (Demokratiko Komma, DIKO)</t>
+  </si>
+  <si>
+    <t>DISY - Democratic Rally  (Democratiko Synagermo, DISY)</t>
+  </si>
+  <si>
+    <t>EDEK - United Central Democratic Union  (Eniaias Demokratikis Enosis Kentrou, EDEK )</t>
+  </si>
+  <si>
+    <t>EDI - United Democrats  (Enomenoi Demokrates, EDI)</t>
+  </si>
+  <si>
+    <t>KOP - Ecologists-Environmental Movement (Kinima Oikologon Perivallontiston, KOP)</t>
+  </si>
+  <si>
+    <t>NEO - New Horizons (Neoi Orizontes, NEO)</t>
+  </si>
+  <si>
+    <t>EVROKO - European Party (Evropaiko Komma, EVROKO)</t>
+  </si>
+  <si>
+    <t>ELAM - National Popular Front (ELAM) (Ethiniko Laiko Metopo, ELAM)</t>
+  </si>
+  <si>
+    <t>ka - Solidarity Movement (Kinima Allilengyi, ka)</t>
+  </si>
+  <si>
+    <t>sypol - Citizen’s Alliance  (Symmachía Politón, sypol)</t>
   </si>
   <si>
     <t>2001</t>
